--- a/benchmarktests/testdefinitions/Benchmarktest_traject 83-1.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 83-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C657C660-897A-4520-AF49-8D4F762FC590}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBCC5FB-53D8-4E0E-B10C-95E352742614}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" activeTab="5" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -2274,7 +2274,7 @@
   </sheetPr>
   <dimension ref="B1:L558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+    <sheetView topLeftCell="A481" workbookViewId="0">
       <selection activeCell="C524" sqref="C524"/>
     </sheetView>
   </sheetViews>
@@ -24856,11 +24856,11 @@
         <v>15.476000000000001</v>
       </c>
       <c r="D515" s="23" t="str">
-        <f t="shared" ref="D515:D523" si="16">IF(COUNTIF(F515:L515,"D")&gt;0,"D",IF(COUNTIF(F515:L515,"-III")&gt;0,"-III",IF(COUNTIF(F515:L515,"-II")&gt;0,"-II",IF(COUNTIF(F515:L515,"-I")&gt;0,"-I",IF(COUNTIF(F515:L515,"+0")&gt;0,"+0",IF(COUNTIF(F515:L515,"+I")&gt;0,"+I",IF(COUNTIF(F515:L515,"+II")&gt;0,"+II",IF(COUNTIF(F515:L515,"+III")&gt;0,"+III",IF(COUNTIF(F515:L515,"ND")&gt;0,"ND","NR")))))))))</f>
+        <f t="shared" ref="D515:D522" si="16">IF(COUNTIF(F515:L515,"D")&gt;0,"D",IF(COUNTIF(F515:L515,"-III")&gt;0,"-III",IF(COUNTIF(F515:L515,"-II")&gt;0,"-II",IF(COUNTIF(F515:L515,"-I")&gt;0,"-I",IF(COUNTIF(F515:L515,"+0")&gt;0,"+0",IF(COUNTIF(F515:L515,"+I")&gt;0,"+I",IF(COUNTIF(F515:L515,"+II")&gt;0,"+II",IF(COUNTIF(F515:L515,"+III")&gt;0,"+III",IF(COUNTIF(F515:L515,"ND")&gt;0,"ND","NR")))))))))</f>
         <v>D</v>
       </c>
       <c r="E515" s="23" t="str">
-        <f t="shared" ref="E515:E578" si="17">IF(COUNTIF(F515:L515,"-III")&gt;0,"-III",IF(COUNTIF(F515:L515,"-II")&gt;0,"-II",IF(COUNTIF(F515:L515,"-I")&gt;0,"-I",IF(COUNTIF(F515:L515,"+0")&gt;0,"+0",IF(COUNTIF(F515:L515,"+I")&gt;0,"+I",IF(COUNTIF(F515:L515,"+II")&gt;0,"+II",IF(COUNTIF(F515:L515,"+III")&gt;0,"+III",IF(COUNTIF(F515:L515,"ND")&gt;0,"ND","NR"))))))))</f>
+        <f t="shared" ref="E515:E522" si="17">IF(COUNTIF(F515:L515,"-III")&gt;0,"-III",IF(COUNTIF(F515:L515,"-II")&gt;0,"-II",IF(COUNTIF(F515:L515,"-I")&gt;0,"-I",IF(COUNTIF(F515:L515,"+0")&gt;0,"+0",IF(COUNTIF(F515:L515,"+I")&gt;0,"+I",IF(COUNTIF(F515:L515,"+II")&gt;0,"+II",IF(COUNTIF(F515:L515,"+III")&gt;0,"+III",IF(COUNTIF(F515:L515,"ND")&gt;0,"ND","NR"))))))))</f>
         <v>+I</v>
       </c>
       <c r="F515" s="9" t="str">
@@ -25612,7 +25612,7 @@
   <dimension ref="B2:Y36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:O33"/>
+      <selection activeCell="X12" sqref="Q12:X33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25827,7 +25827,7 @@
         <v>1</v>
       </c>
       <c r="W11" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V11)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V11)</f>
         <v>+III</v>
       </c>
       <c r="X11" s="12" t="b">
@@ -25879,19 +25879,19 @@
         <v>+III</v>
       </c>
       <c r="Q12" s="31">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="Q12:Q33" si="6">IF(AND(F12="Geen faalkans",I12="Nee"),1,1-M12)</f>
         <v>0.99999997270240004</v>
       </c>
       <c r="R12" s="10">
-        <f t="shared" ref="R12:R14" si="6">IF(M12="-",1,Q12)</f>
+        <f t="shared" ref="R12:R33" si="7">IF(M12="-",1,Q12)</f>
         <v>0.99999997270240004</v>
       </c>
       <c r="S12" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="S12:S33" si="8">IF(AND(F12="Geen faalkans",I12="Nee"),0,L12*$C$3)</f>
         <v>1.7339999999999998E-7</v>
       </c>
       <c r="T12" s="10">
-        <f t="shared" ref="T12:T14" si="7">IF(L12="-",0,S12)</f>
+        <f t="shared" ref="T12:T33" si="9">IF(L12="-",0,S12)</f>
         <v>1.7339999999999998E-7</v>
       </c>
       <c r="U12" s="9">
@@ -25903,11 +25903,11 @@
         <v>1</v>
       </c>
       <c r="W12" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V12)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V12)</f>
         <v>+III</v>
       </c>
       <c r="X12" s="12" t="b">
-        <f t="shared" ref="X12:X33" si="8">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
+        <f t="shared" ref="X12:X33" si="10">IF($E12="Ja",IF($I12="Ja",NOT(ISNUMBER($J12)),FALSE),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -25955,19 +25955,19 @@
         <v>+III</v>
       </c>
       <c r="Q13" s="31">
-        <f t="shared" si="4"/>
-        <v>0.99999999999998868</v>
-      </c>
-      <c r="R13" s="10">
         <f t="shared" si="6"/>
         <v>0.99999999999998868</v>
       </c>
+      <c r="R13" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999999999998868</v>
+      </c>
       <c r="S13" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.1560000000000001E-13</v>
       </c>
       <c r="T13" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.1560000000000001E-13</v>
       </c>
       <c r="U13" s="9">
@@ -25979,11 +25979,11 @@
         <v>1</v>
       </c>
       <c r="W13" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V13)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V13)</f>
         <v>+III</v>
       </c>
       <c r="X13" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26031,19 +26031,19 @@
         <v>+III</v>
       </c>
       <c r="Q14" s="31">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="R14" s="10">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
+      <c r="R14" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
       <c r="S14" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>1.7339999999999998E-19</v>
       </c>
       <c r="T14" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.7339999999999998E-19</v>
       </c>
       <c r="U14" s="9">
@@ -26055,11 +26055,11 @@
         <v>1</v>
       </c>
       <c r="W14" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V14)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V14)</f>
         <v>+III</v>
       </c>
       <c r="X14" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26111,19 +26111,19 @@
         <v>+II</v>
       </c>
       <c r="Q15" s="31">
-        <f t="shared" ref="Q15:Q33" si="9">IF(AND(F15="Geen faalkans",I15="Nee"),1,1-M15)</f>
+        <f t="shared" si="6"/>
         <v>0.99998840240431996</v>
       </c>
       <c r="R15" s="10">
-        <f t="shared" ref="R15:R33" si="10">IF(M15="-",1,Q15)</f>
+        <f t="shared" si="7"/>
         <v>0.99998840240431996</v>
       </c>
       <c r="S15" s="10">
-        <f t="shared" ref="S15:S33" si="11">IF(AND(F15="Geen faalkans",I15="Nee"),0,L15*$C$3)</f>
+        <f t="shared" si="8"/>
         <v>1.5653396E-4</v>
       </c>
       <c r="T15" s="10">
-        <f t="shared" ref="T15:T33" si="12">IF(L15="-",0,S15)</f>
+        <f t="shared" si="9"/>
         <v>1.5653396E-4</v>
       </c>
       <c r="U15" s="9">
@@ -26135,11 +26135,11 @@
         <v>2</v>
       </c>
       <c r="W15" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V15)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V15)</f>
         <v>+II</v>
       </c>
       <c r="X15" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26187,19 +26187,19 @@
         <v>+III</v>
       </c>
       <c r="Q16" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999770734479998</v>
+      </c>
+      <c r="R16" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999770734479998</v>
+      </c>
+      <c r="S16" s="10">
+        <f t="shared" si="8"/>
+        <v>1.2046860959999999E-5</v>
+      </c>
+      <c r="T16" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999770734479998</v>
-      </c>
-      <c r="R16" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99999770734479998</v>
-      </c>
-      <c r="S16" s="10">
-        <f t="shared" si="11"/>
-        <v>1.2046860959999999E-5</v>
-      </c>
-      <c r="T16" s="10">
-        <f t="shared" si="12"/>
         <v>1.2046860959999999E-5</v>
       </c>
       <c r="U16" s="9">
@@ -26211,11 +26211,11 @@
         <v>1</v>
       </c>
       <c r="W16" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V16)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V16)</f>
         <v>+III</v>
       </c>
       <c r="X16" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26263,19 +26263,19 @@
         <v>+III</v>
       </c>
       <c r="Q17" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999999578400001</v>
+      </c>
+      <c r="R17" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999999578400001</v>
+      </c>
+      <c r="S17" s="10">
+        <f t="shared" si="8"/>
+        <v>1.156E-7</v>
+      </c>
+      <c r="T17" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999578400001</v>
-      </c>
-      <c r="R17" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99999999578400001</v>
-      </c>
-      <c r="S17" s="10">
-        <f t="shared" si="11"/>
-        <v>1.156E-7</v>
-      </c>
-      <c r="T17" s="10">
-        <f t="shared" si="12"/>
         <v>1.156E-7</v>
       </c>
       <c r="U17" s="9">
@@ -26287,11 +26287,11 @@
         <v>1</v>
       </c>
       <c r="W17" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V17)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V17)</f>
         <v>+III</v>
       </c>
       <c r="X17" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26339,19 +26339,19 @@
         <v>+I</v>
       </c>
       <c r="Q18" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99994229183423999</v>
+      </c>
+      <c r="R18" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99994229183423999</v>
+      </c>
+      <c r="S18" s="10">
+        <f t="shared" si="8"/>
+        <v>4.4554552000000003E-4</v>
+      </c>
+      <c r="T18" s="10">
         <f t="shared" si="9"/>
-        <v>0.99994229183423999</v>
-      </c>
-      <c r="R18" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99994229183423999</v>
-      </c>
-      <c r="S18" s="10">
-        <f t="shared" si="11"/>
-        <v>4.4554552000000003E-4</v>
-      </c>
-      <c r="T18" s="10">
-        <f t="shared" si="12"/>
         <v>4.4554552000000003E-4</v>
       </c>
       <c r="U18" s="9">
@@ -26363,11 +26363,11 @@
         <v>3</v>
       </c>
       <c r="W18" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V18)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V18)</f>
         <v>+I</v>
       </c>
       <c r="X18" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26411,19 +26411,19 @@
         <v>D</v>
       </c>
       <c r="Q19" s="31" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S19" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T19" s="10">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R19" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="S19" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T19" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U19" s="9">
@@ -26435,11 +26435,11 @@
         <v>1</v>
       </c>
       <c r="W19" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V19)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V19)</f>
         <v>+III</v>
       </c>
       <c r="X19" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -26487,19 +26487,19 @@
         <v>+III</v>
       </c>
       <c r="Q20" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R20" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S20" s="10">
+        <f t="shared" si="8"/>
+        <v>1.3096485839999998E-22</v>
+      </c>
+      <c r="T20" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="R20" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="S20" s="10">
-        <f t="shared" si="11"/>
-        <v>1.3096485839999998E-22</v>
-      </c>
-      <c r="T20" s="10">
-        <f t="shared" si="12"/>
         <v>1.3096485839999998E-22</v>
       </c>
       <c r="U20" s="9">
@@ -26511,11 +26511,11 @@
         <v>1</v>
       </c>
       <c r="W20" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V20)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V20)</f>
         <v>+III</v>
       </c>
       <c r="X20" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26563,19 +26563,19 @@
         <v>+III</v>
       </c>
       <c r="Q21" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999999998275468</v>
+      </c>
+      <c r="R21" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999999998275468</v>
+      </c>
+      <c r="S21" s="10">
+        <f t="shared" si="8"/>
+        <v>3.8912404999999994E-10</v>
+      </c>
+      <c r="T21" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999999998275468</v>
-      </c>
-      <c r="R21" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99999999998275468</v>
-      </c>
-      <c r="S21" s="10">
-        <f t="shared" si="11"/>
-        <v>3.8912404999999994E-10</v>
-      </c>
-      <c r="T21" s="10">
-        <f t="shared" si="12"/>
         <v>3.8912404999999994E-10</v>
       </c>
       <c r="U21" s="9">
@@ -26587,11 +26587,11 @@
         <v>1</v>
       </c>
       <c r="W21" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V21)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V21)</f>
         <v>+III</v>
       </c>
       <c r="X21" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26639,19 +26639,19 @@
         <v>+I</v>
       </c>
       <c r="Q22" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99994525841295179</v>
+      </c>
+      <c r="R22" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99994525841295179</v>
+      </c>
+      <c r="S22" s="10">
+        <f t="shared" si="8"/>
+        <v>1.4610563960959998E-3</v>
+      </c>
+      <c r="T22" s="10">
         <f t="shared" si="9"/>
-        <v>0.99994525841295179</v>
-      </c>
-      <c r="R22" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99994525841295179</v>
-      </c>
-      <c r="S22" s="10">
-        <f t="shared" si="11"/>
-        <v>1.4610563960959998E-3</v>
-      </c>
-      <c r="T22" s="10">
-        <f t="shared" si="12"/>
         <v>1.4610563960959998E-3</v>
       </c>
       <c r="U22" s="9">
@@ -26663,11 +26663,11 @@
         <v>3</v>
       </c>
       <c r="W22" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V22)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V22)</f>
         <v>+I</v>
       </c>
       <c r="X22" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26711,19 +26711,19 @@
         <v>D</v>
       </c>
       <c r="Q23" s="31" t="e">
+        <f t="shared" si="6"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="R23" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S23" s="10" t="e">
+        <f t="shared" si="8"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="T23" s="10">
         <f t="shared" si="9"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="R23" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="S23" s="10" t="e">
-        <f t="shared" si="11"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="T23" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U23" s="9">
@@ -26735,11 +26735,11 @@
         <v>1</v>
       </c>
       <c r="W23" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V23)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V23)</f>
         <v>+III</v>
       </c>
       <c r="X23" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
     </row>
@@ -26791,19 +26791,19 @@
         <v>+III</v>
       </c>
       <c r="Q24" s="31">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="R24" s="10">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="S24" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
         <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="R24" s="10">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="S24" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="10">
-        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U24" s="9">
@@ -26815,11 +26815,11 @@
         <v>1</v>
       </c>
       <c r="W24" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V24)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V24)</f>
         <v>+III</v>
       </c>
       <c r="X24" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26867,19 +26867,19 @@
         <v>+III</v>
       </c>
       <c r="Q25" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999719865415004</v>
+      </c>
+      <c r="R25" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999719865415004</v>
+      </c>
+      <c r="S25" s="10">
+        <f t="shared" si="8"/>
+        <v>1.2270217499999999E-5</v>
+      </c>
+      <c r="T25" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999719865415004</v>
-      </c>
-      <c r="R25" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99999719865415004</v>
-      </c>
-      <c r="S25" s="10">
-        <f t="shared" si="11"/>
-        <v>1.2270217499999999E-5</v>
-      </c>
-      <c r="T25" s="10">
-        <f t="shared" si="12"/>
         <v>1.2270217499999999E-5</v>
       </c>
       <c r="U25" s="9">
@@ -26891,11 +26891,11 @@
         <v>1</v>
       </c>
       <c r="W25" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V25)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V25)</f>
         <v>+III</v>
       </c>
       <c r="X25" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -26947,19 +26947,19 @@
         <v>+I</v>
       </c>
       <c r="Q26" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99992183195999995</v>
+      </c>
+      <c r="R26" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99992183195999995</v>
+      </c>
+      <c r="S26" s="10">
+        <f t="shared" si="8"/>
+        <v>4.78006E-4</v>
+      </c>
+      <c r="T26" s="10">
         <f t="shared" si="9"/>
-        <v>0.99992183195999995</v>
-      </c>
-      <c r="R26" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99992183195999995</v>
-      </c>
-      <c r="S26" s="10">
-        <f t="shared" si="11"/>
-        <v>4.78006E-4</v>
-      </c>
-      <c r="T26" s="10">
-        <f t="shared" si="12"/>
         <v>4.78006E-4</v>
       </c>
       <c r="U26" s="9">
@@ -26971,11 +26971,11 @@
         <v>3</v>
       </c>
       <c r="W26" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V26)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V26)</f>
         <v>+I</v>
       </c>
       <c r="X26" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -27027,19 +27027,19 @@
         <v>+III</v>
       </c>
       <c r="Q27" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999914369739196</v>
+      </c>
+      <c r="R27" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999914369739196</v>
+      </c>
+      <c r="S27" s="10">
+        <f t="shared" si="8"/>
+        <v>1.2902578399999999E-5</v>
+      </c>
+      <c r="T27" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999914369739196</v>
-      </c>
-      <c r="R27" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99999914369739196</v>
-      </c>
-      <c r="S27" s="10">
-        <f t="shared" si="11"/>
-        <v>1.2902578399999999E-5</v>
-      </c>
-      <c r="T27" s="10">
-        <f t="shared" si="12"/>
         <v>1.2902578399999999E-5</v>
       </c>
       <c r="U27" s="9">
@@ -27051,11 +27051,11 @@
         <v>1</v>
       </c>
       <c r="W27" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V27)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V27)</f>
         <v>+III</v>
       </c>
       <c r="X27" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -27103,19 +27103,19 @@
         <v>+III</v>
       </c>
       <c r="Q28" s="31">
+        <f t="shared" si="6"/>
+        <v>0.9999999051335946</v>
+      </c>
+      <c r="R28" s="10">
+        <f t="shared" si="7"/>
+        <v>0.9999999051335946</v>
+      </c>
+      <c r="S28" s="10">
+        <f t="shared" si="8"/>
+        <v>2.2088616800000001E-6</v>
+      </c>
+      <c r="T28" s="10">
         <f t="shared" si="9"/>
-        <v>0.9999999051335946</v>
-      </c>
-      <c r="R28" s="10">
-        <f t="shared" si="10"/>
-        <v>0.9999999051335946</v>
-      </c>
-      <c r="S28" s="10">
-        <f t="shared" si="11"/>
-        <v>2.2088616800000001E-6</v>
-      </c>
-      <c r="T28" s="10">
-        <f t="shared" si="12"/>
         <v>2.2088616800000001E-6</v>
       </c>
       <c r="U28" s="9">
@@ -27127,11 +27127,11 @@
         <v>1</v>
       </c>
       <c r="W28" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V28)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V28)</f>
         <v>+III</v>
       </c>
       <c r="X28" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -27179,19 +27179,19 @@
         <v>+III</v>
       </c>
       <c r="Q29" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999961797895554</v>
+      </c>
+      <c r="R29" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999961797895554</v>
+      </c>
+      <c r="S29" s="10">
+        <f t="shared" si="8"/>
+        <v>1.63406669E-6</v>
+      </c>
+      <c r="T29" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999961797895554</v>
-      </c>
-      <c r="R29" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99999961797895554</v>
-      </c>
-      <c r="S29" s="10">
-        <f t="shared" si="11"/>
-        <v>1.63406669E-6</v>
-      </c>
-      <c r="T29" s="10">
-        <f t="shared" si="12"/>
         <v>1.63406669E-6</v>
       </c>
       <c r="U29" s="9">
@@ -27203,11 +27203,11 @@
         <v>1</v>
       </c>
       <c r="W29" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V29)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V29)</f>
         <v>+III</v>
       </c>
       <c r="X29" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -27259,19 +27259,19 @@
         <v>+I</v>
       </c>
       <c r="Q30" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99988318745747995</v>
+      </c>
+      <c r="R30" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99988318745747995</v>
+      </c>
+      <c r="S30" s="10">
+        <f t="shared" si="8"/>
+        <v>1.9029777219999996E-3</v>
+      </c>
+      <c r="T30" s="10">
         <f t="shared" si="9"/>
-        <v>0.99988318745747995</v>
-      </c>
-      <c r="R30" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99988318745747995</v>
-      </c>
-      <c r="S30" s="10">
-        <f t="shared" si="11"/>
-        <v>1.9029777219999996E-3</v>
-      </c>
-      <c r="T30" s="10">
-        <f t="shared" si="12"/>
         <v>1.9029777219999996E-3</v>
       </c>
       <c r="U30" s="9">
@@ -27283,11 +27283,11 @@
         <v>3</v>
       </c>
       <c r="W30" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V30)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V30)</f>
         <v>+I</v>
       </c>
       <c r="X30" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -27335,19 +27335,19 @@
         <v>+III</v>
       </c>
       <c r="Q31" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999872672936174</v>
+      </c>
+      <c r="R31" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999872672936174</v>
+      </c>
+      <c r="S31" s="10">
+        <f t="shared" si="8"/>
+        <v>1.5803780039999997E-5</v>
+      </c>
+      <c r="T31" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999872672936174</v>
-      </c>
-      <c r="R31" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99999872672936174</v>
-      </c>
-      <c r="S31" s="10">
-        <f t="shared" si="11"/>
-        <v>1.5803780039999997E-5</v>
-      </c>
-      <c r="T31" s="10">
-        <f t="shared" si="12"/>
         <v>1.5803780039999997E-5</v>
       </c>
       <c r="U31" s="9">
@@ -27359,11 +27359,11 @@
         <v>1</v>
       </c>
       <c r="W31" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V31)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V31)</f>
         <v>+III</v>
       </c>
       <c r="X31" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -27411,19 +27411,19 @@
         <v>+III</v>
       </c>
       <c r="Q32" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999692502502002</v>
+      </c>
+      <c r="R32" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999692502502002</v>
+      </c>
+      <c r="S32" s="10">
+        <f t="shared" si="8"/>
+        <v>1.6317807000000001E-5</v>
+      </c>
+      <c r="T32" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999692502502002</v>
-      </c>
-      <c r="R32" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99999692502502002</v>
-      </c>
-      <c r="S32" s="10">
-        <f t="shared" si="11"/>
-        <v>1.6317807000000001E-5</v>
-      </c>
-      <c r="T32" s="10">
-        <f t="shared" si="12"/>
         <v>1.6317807000000001E-5</v>
       </c>
       <c r="U32" s="9">
@@ -27435,11 +27435,11 @@
         <v>1</v>
       </c>
       <c r="W32" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V32)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V32)</f>
         <v>+III</v>
       </c>
       <c r="X32" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -27491,19 +27491,19 @@
         <v>+III</v>
       </c>
       <c r="Q33" s="31">
+        <f t="shared" si="6"/>
+        <v>0.99999859077068798</v>
+      </c>
+      <c r="R33" s="10">
+        <f t="shared" si="7"/>
+        <v>0.99999859077068798</v>
+      </c>
+      <c r="S33" s="10">
+        <f t="shared" si="8"/>
+        <v>1.6029095999999998E-5</v>
+      </c>
+      <c r="T33" s="10">
         <f t="shared" si="9"/>
-        <v>0.99999859077068798</v>
-      </c>
-      <c r="R33" s="10">
-        <f t="shared" si="10"/>
-        <v>0.99999859077068798</v>
-      </c>
-      <c r="S33" s="10">
-        <f t="shared" si="11"/>
-        <v>1.6029095999999998E-5</v>
-      </c>
-      <c r="T33" s="10">
-        <f t="shared" si="12"/>
         <v>1.6029095999999998E-5</v>
       </c>
       <c r="U33" s="9">
@@ -27515,11 +27515,11 @@
         <v>1</v>
       </c>
       <c r="W33" s="9" t="str">
-        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,STPH!V33)</f>
+        <f>INDEX('Normen en duidingsklassen'!$D$13:$D$20,V33)</f>
         <v>+III</v>
       </c>
       <c r="X33" s="12" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -27670,7 +27670,7 @@
   <dimension ref="B2:Y38"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11:O33"/>
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29812,7 +29812,7 @@
   <dimension ref="B2:U73"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K33"/>
+      <selection activeCell="T12" sqref="M12:T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29995,7 +29995,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R11" s="9">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="9" t="str">
@@ -30039,19 +30039,19 @@
         <v>+III</v>
       </c>
       <c r="M12" s="31">
-        <f t="shared" ref="M12:M14" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
+        <f t="shared" ref="M12:M33" si="5">IF(AND(F12="Geen faalkans",H12="Nee"),1,1-J12)</f>
         <v>0.99999999687236685</v>
       </c>
       <c r="N12" s="10">
-        <f t="shared" ref="N12:N14" si="6">IF(J12="-",1,M12)</f>
+        <f t="shared" ref="N12:N33" si="6">IF(J12="-",1,M12)</f>
         <v>0.99999999687236685</v>
       </c>
       <c r="O12" s="10">
-        <f t="shared" ref="O12:O14" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
+        <f t="shared" ref="O12:O33" si="7">IF(AND(F12="Geen faalkans",H12="Nee"),0,J12*$C$3)</f>
         <v>6.2552663408820453E-9</v>
       </c>
       <c r="P12" s="10">
-        <f t="shared" ref="P12:P14" si="8">IF(J12="-",0,O12)</f>
+        <f t="shared" ref="P12:P33" si="8">IF(J12="-",0,O12)</f>
         <v>6.2552663408820453E-9</v>
       </c>
       <c r="Q12" s="9">
@@ -30059,7 +30059,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R12" s="9">
-        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q12,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S12" s="9" t="str">
@@ -30123,7 +30123,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R13" s="9">
-        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q13,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S13" s="9" t="str">
@@ -30187,7 +30187,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R14" s="9">
-        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q14,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S14" s="9" t="str">
@@ -30231,19 +30231,19 @@
         <v>+I</v>
       </c>
       <c r="M15" s="31">
-        <f t="shared" ref="M15:M33" si="12">IF(AND(F15="Geen faalkans",H15="Nee"),1,1-J15)</f>
+        <f t="shared" si="5"/>
         <v>0.99987004854759376</v>
       </c>
       <c r="N15" s="10">
-        <f t="shared" ref="N15:N33" si="13">IF(J15="-",1,M15)</f>
+        <f t="shared" si="6"/>
         <v>0.99987004854759376</v>
       </c>
       <c r="O15" s="10">
-        <f t="shared" ref="O15:O33" si="14">IF(AND(F15="Geen faalkans",H15="Nee"),0,J15*$C$3)</f>
+        <f t="shared" si="7"/>
         <v>2.5990290481255383E-4</v>
       </c>
       <c r="P15" s="10">
-        <f t="shared" ref="P15:P33" si="15">IF(J15="-",0,O15)</f>
+        <f t="shared" si="8"/>
         <v>2.5990290481255383E-4</v>
       </c>
       <c r="Q15" s="9">
@@ -30251,7 +30251,7 @@
         <v>3.3333333333333338E-4</v>
       </c>
       <c r="R15" s="9">
-        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q15,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="S15" s="9" t="str">
@@ -30295,19 +30295,19 @@
         <v>+III</v>
       </c>
       <c r="M16" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99999964127095775</v>
       </c>
       <c r="N16" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99999964127095775</v>
       </c>
       <c r="O16" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>7.1745808440381216E-7</v>
       </c>
       <c r="P16" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>7.1745808440381216E-7</v>
       </c>
       <c r="Q16" s="9">
@@ -30315,7 +30315,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R16" s="9">
-        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q16,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S16" s="9" t="str">
@@ -30359,19 +30359,19 @@
         <v>+III</v>
       </c>
       <c r="M17" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99999999984526822</v>
       </c>
       <c r="N17" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99999999984526822</v>
       </c>
       <c r="O17" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>3.0946347256783025E-10</v>
       </c>
       <c r="P17" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>3.0946347256783025E-10</v>
       </c>
       <c r="Q17" s="9">
@@ -30379,7 +30379,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R17" s="9">
-        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q17,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S17" s="9" t="str">
@@ -30423,19 +30423,19 @@
         <v>+II</v>
       </c>
       <c r="M18" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.9999941449252594</v>
       </c>
       <c r="N18" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.9999941449252594</v>
       </c>
       <c r="O18" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.1710149481228717E-5</v>
       </c>
       <c r="P18" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.1710149481228717E-5</v>
       </c>
       <c r="Q18" s="9">
@@ -30443,7 +30443,7 @@
         <v>3.3333333333333335E-5</v>
       </c>
       <c r="R18" s="9">
-        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q18,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>2</v>
       </c>
       <c r="S18" s="9" t="str">
@@ -30487,19 +30487,19 @@
         <v>+I</v>
       </c>
       <c r="M19" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99984353999999998</v>
       </c>
       <c r="N19" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99984353999999998</v>
       </c>
       <c r="O19" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>3.1292000000000001E-4</v>
       </c>
       <c r="P19" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>3.1292000000000001E-4</v>
       </c>
       <c r="Q19" s="9">
@@ -30507,7 +30507,7 @@
         <v>3.3333333333333338E-4</v>
       </c>
       <c r="R19" s="9">
-        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q19,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="S19" s="9" t="str">
@@ -30551,19 +30551,19 @@
         <v>+III</v>
       </c>
       <c r="M20" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O20" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>5.3603104217581883E-24</v>
       </c>
       <c r="P20" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>5.3603104217581883E-24</v>
       </c>
       <c r="Q20" s="9">
@@ -30571,7 +30571,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R20" s="9">
-        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q20,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S20" s="9" t="str">
@@ -30615,19 +30615,19 @@
         <v>+III</v>
       </c>
       <c r="M21" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99999999998962696</v>
       </c>
       <c r="N21" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99999999998962696</v>
       </c>
       <c r="O21" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2.0746070292237064E-11</v>
       </c>
       <c r="P21" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.0746070292237064E-11</v>
       </c>
       <c r="Q21" s="9">
@@ -30635,7 +30635,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R21" s="9">
-        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q21,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S21" s="9" t="str">
@@ -30679,19 +30679,19 @@
         <v>+I</v>
       </c>
       <c r="M22" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99994981202357203</v>
       </c>
       <c r="N22" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99994981202357203</v>
       </c>
       <c r="O22" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.0037595285585853E-4</v>
       </c>
       <c r="P22" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.0037595285585853E-4</v>
       </c>
       <c r="Q22" s="9">
@@ -30699,7 +30699,7 @@
         <v>3.3333333333333338E-4</v>
       </c>
       <c r="R22" s="9">
-        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q22,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="S22" s="9" t="str">
@@ -30743,19 +30743,19 @@
         <v>+0</v>
       </c>
       <c r="M23" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99948435999999996</v>
       </c>
       <c r="N23" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99948435999999996</v>
       </c>
       <c r="O23" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.0312800000000001E-3</v>
       </c>
       <c r="P23" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.0312800000000001E-3</v>
       </c>
       <c r="Q23" s="9">
@@ -30763,7 +30763,7 @@
         <v>3.3333333333333335E-3</v>
       </c>
       <c r="R23" s="9">
-        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q23,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>4</v>
       </c>
       <c r="S23" s="9" t="str">
@@ -30807,19 +30807,19 @@
         <v>+I</v>
       </c>
       <c r="M24" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99996046707755926</v>
       </c>
       <c r="N24" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99996046707755926</v>
       </c>
       <c r="O24" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>7.9065844881541847E-5</v>
       </c>
       <c r="P24" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>7.9065844881541847E-5</v>
       </c>
       <c r="Q24" s="9">
@@ -30827,7 +30827,7 @@
         <v>3.3333333333333338E-4</v>
       </c>
       <c r="R24" s="9">
-        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q24,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="S24" s="9" t="str">
@@ -30871,19 +30871,19 @@
         <v>+III</v>
       </c>
       <c r="M25" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.9999996849633549</v>
       </c>
       <c r="N25" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.9999996849633549</v>
       </c>
       <c r="O25" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>6.3007329019075002E-7</v>
       </c>
       <c r="P25" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>6.3007329019075002E-7</v>
       </c>
       <c r="Q25" s="9">
@@ -30891,7 +30891,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R25" s="9">
-        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q25,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S25" s="9" t="str">
@@ -30935,19 +30935,19 @@
         <v>D</v>
       </c>
       <c r="M26" s="31" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>#VALUE!</v>
       </c>
       <c r="N26" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O26" s="10" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
       <c r="P26" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q26" s="9">
@@ -30955,7 +30955,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="9">
-        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q26,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S26" s="9" t="str">
@@ -30999,19 +30999,19 @@
         <v>+I</v>
       </c>
       <c r="M27" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99996568177130551</v>
       </c>
       <c r="N27" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99996568177130551</v>
       </c>
       <c r="O27" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>6.86364573889016E-5</v>
       </c>
       <c r="P27" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>6.86364573889016E-5</v>
       </c>
       <c r="Q27" s="9">
@@ -31019,7 +31019,7 @@
         <v>3.3333333333333338E-4</v>
       </c>
       <c r="R27" s="9">
-        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q27,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="S27" s="9" t="str">
@@ -31063,19 +31063,19 @@
         <v>+III</v>
       </c>
       <c r="M28" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99999995347365711</v>
       </c>
       <c r="N28" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99999995347365711</v>
       </c>
       <c r="O28" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>9.3052685756443225E-8</v>
       </c>
       <c r="P28" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>9.3052685756443225E-8</v>
       </c>
       <c r="Q28" s="9">
@@ -31083,7 +31083,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R28" s="9">
-        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q28,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S28" s="9" t="str">
@@ -31127,19 +31127,19 @@
         <v>+III</v>
       </c>
       <c r="M29" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99999995502784189</v>
       </c>
       <c r="N29" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99999995502784189</v>
       </c>
       <c r="O29" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>8.9944316228201392E-8</v>
       </c>
       <c r="P29" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>8.9944316228201392E-8</v>
       </c>
       <c r="Q29" s="9">
@@ -31147,7 +31147,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R29" s="9">
-        <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q29,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S29" s="9" t="str">
@@ -31193,19 +31193,19 @@
         <v>+I</v>
       </c>
       <c r="M30" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99994536000000001</v>
       </c>
       <c r="N30" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99994536000000001</v>
       </c>
       <c r="O30" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>1.0928E-4</v>
       </c>
       <c r="P30" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>1.0928E-4</v>
       </c>
       <c r="Q30" s="9">
@@ -31213,7 +31213,7 @@
         <v>3.3333333333333338E-4</v>
       </c>
       <c r="R30" s="9">
-        <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q30,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="S30" s="9" t="str">
@@ -31257,19 +31257,19 @@
         <v>+III</v>
       </c>
       <c r="M31" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99999971186952019</v>
       </c>
       <c r="N31" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99999971186952019</v>
       </c>
       <c r="O31" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>5.7626095963498115E-7</v>
       </c>
       <c r="P31" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>5.7626095963498115E-7</v>
       </c>
       <c r="Q31" s="9">
@@ -31277,7 +31277,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R31" s="9">
-        <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q31,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S31" s="9" t="str">
@@ -31321,19 +31321,19 @@
         <v>+III</v>
       </c>
       <c r="M32" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99999986721378398</v>
       </c>
       <c r="N32" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99999986721378398</v>
       </c>
       <c r="O32" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>2.6557243193453266E-7</v>
       </c>
       <c r="P32" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>2.6557243193453266E-7</v>
       </c>
       <c r="Q32" s="70">
@@ -31341,7 +31341,7 @@
         <v>3.3333333333333337E-6</v>
       </c>
       <c r="R32" s="9">
-        <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q32,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S32" s="9" t="str">
@@ -31385,19 +31385,19 @@
         <v>+I</v>
       </c>
       <c r="M33" s="31">
-        <f t="shared" si="12"/>
+        <f t="shared" si="5"/>
         <v>0.99968305365398558</v>
       </c>
       <c r="N33" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="6"/>
         <v>0.99968305365398558</v>
       </c>
       <c r="O33" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="7"/>
         <v>6.3389269202883262E-4</v>
       </c>
       <c r="P33" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="8"/>
         <v>6.3389269202883262E-4</v>
       </c>
       <c r="Q33" s="70">
@@ -31405,7 +31405,7 @@
         <v>3.3333333333333338E-4</v>
       </c>
       <c r="R33" s="9">
-        <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q33,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>3</v>
       </c>
       <c r="S33" s="9" t="str">
@@ -32299,8 +32299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AFA3C0E-3A5C-4A61-A32F-6BC05AD0EB33}">
   <dimension ref="B2:U13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32477,11 +32477,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="14">
-        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
-        <v>3.3333333333333337E-6</v>
+        <f t="array" ref="Q11">MIN(IF('Normen en duidingsklassen'!$E$13:$E$20&gt;=$J11,'Normen en duidingsklassen'!$E$13:$E$20))</f>
+        <v>0</v>
       </c>
       <c r="R11" s="14">
-        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20),1)</f>
+        <f>IFERROR(MATCH($Q11,'Normen en duidingsklassen'!$E$13:$E$20,0),1)</f>
         <v>1</v>
       </c>
       <c r="S11" s="14" t="str">
@@ -34359,8 +34359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A4475A-3782-4C92-8ED6-63AC240A6132}">
   <dimension ref="B2:U35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11:K33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34384,7 +34384,7 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">

--- a/benchmarktests/testdefinitions/Benchmarktest_traject 83-1.xlsx
+++ b/benchmarktests/testdefinitions/Benchmarktest_traject 83-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3CBD1C-01A1-4A78-BE3A-94A932DAEC28}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AD7778-79B2-4BDB-8E14-F78185012664}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="653" activeTab="10" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="653" activeTab="9" xr2:uid="{34AC3CB5-6C6A-4A77-BC52-5E824B97181F}"/>
   </bookViews>
   <sheets>
     <sheet name="Informatiepagina" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="122">
   <si>
     <t>Vaknaam</t>
   </si>
@@ -1966,8 +1966,8 @@
   </sheetPr>
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,7 +1982,7 @@
         <v>73</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>IFERROR(1-PRODUCT(G7:G12),"GR")</f>
+        <f>IFERROR(1-PRODUCT(G7:G14),"GR")</f>
         <v>GR</v>
       </c>
       <c r="E2" t="str">
@@ -1990,7 +1990,7 @@
         <v>-</v>
       </c>
       <c r="G2">
-        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <f t="array" ref="G2">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D2,'Normen en duidingsklassen'!$F$4:$F$8))</f>
         <v>0</v>
       </c>
       <c r="H2">
@@ -2003,20 +2003,20 @@
         <v>72</v>
       </c>
       <c r="D3" s="1">
-        <f>1-PRODUCT(H7:H12)</f>
-        <v>2.4275750967163168E-3</v>
+        <f>1-PRODUCT(H7:H14)</f>
+        <v>2.4928263090292502E-3</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX('Normen en duidingsklassen'!$D$4:$D$8,H3)</f>
-        <v>B</v>
+        <v>A</v>
       </c>
       <c r="G3">
-        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$F$4:$F$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
-        <v>3.3333333333333335E-3</v>
+        <f t="array" ref="G3">MIN(IF('Normen en duidingsklassen'!$E$4:$E$8&gt;D3,'Normen en duidingsklassen'!$F$4:$F$8))</f>
+        <v>1.1111111111111112E-4</v>
       </c>
       <c r="H3">
         <f>IFERROR(MATCH(G3,'Normen en duidingsklassen'!$F$4:$F$8),1)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2078,11 +2078,11 @@
       </c>
       <c r="E8" s="49"/>
       <c r="G8" s="1" t="e">
-        <f t="shared" ref="G8:G14" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
+        <f t="shared" ref="G8:G13" si="0">IF(ISNUMBER(E8),1-E8,1-C8)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" ref="H8:H14" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
+        <f t="shared" ref="H8:H13" si="1">IF(ISNUMBER(E8),1-E8,1-D8)</f>
         <v>0.99988103925052074</v>
       </c>
     </row>
@@ -2175,17 +2175,25 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="31" t="str">
+        <f>BSKW!C5</f>
+        <v>GR</v>
+      </c>
+      <c r="D13" s="26">
+        <f>BSKW!C6</f>
+        <v>6.5409999999999999E-5</v>
+      </c>
       <c r="E13" s="49"/>
-      <c r="G13" s="1">
+      <c r="G13" s="1" t="e">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.99993458999999996</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2193,14 +2201,8 @@
       <c r="C14" s="33"/>
       <c r="D14" s="27"/>
       <c r="E14" s="51"/>
-      <c r="G14" s="1">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2274,7 +2276,7 @@
   </sheetPr>
   <dimension ref="B1:L558"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="H4" sqref="H4:H90"/>
     </sheetView>
   </sheetViews>
